--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39329\Documents\UiPath\WeatherForecastForBerlin\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2979E330-D761-426B-BDED-EF4C0BC20EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB37ACD-EC08-4D2A-B45E-721B419798E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="-13335" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -151,18 +151,12 @@
     <t>WeatherLink</t>
   </si>
   <si>
-    <t>https://www.timeanddate.com/weather/germany/berlin/ext</t>
-  </si>
-  <si>
     <t>URL For the Weather website</t>
   </si>
   <si>
     <t>GmailCredential</t>
   </si>
   <si>
-    <t>GmailTempCredentials</t>
-  </si>
-  <si>
     <t>OrchestratorFolder</t>
   </si>
   <si>
@@ -175,40 +169,16 @@
     <t>EmailReceiver</t>
   </si>
   <si>
-    <t>abdelilah.chamati@gmail.com</t>
-  </si>
-  <si>
-    <t>"Weather forecast for Berlin (14 days)"</t>
-  </si>
-  <si>
-    <t>chamati@live.com</t>
-  </si>
-  <si>
     <t>GmailServer</t>
   </si>
   <si>
-    <t>smtp.gmail.com</t>
-  </si>
-  <si>
     <t>GmailPort</t>
   </si>
   <si>
     <t>SenderName</t>
   </si>
   <si>
-    <t>Mr. Bot</t>
-  </si>
-  <si>
-    <t>GoogleFolder</t>
-  </si>
-  <si>
     <t>Introduction</t>
-  </si>
-  <si>
-    <t>Her is the weather forcast for the next 14 days</t>
-  </si>
-  <si>
-    <t>Jon Dao</t>
   </si>
   <si>
     <t>ReceiverLastName</t>
@@ -606,7 +576,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -653,10 +623,7 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -664,21 +631,16 @@
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26">
       <c r="A5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -686,69 +648,49 @@
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="2">
-        <v>465</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
